--- a/DateBase/orders/Dang Nguyen_2025-7-3.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-3.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -853,10 +853,181 @@
       <c r="A51" t="str">
         <v>6</v>
       </c>
+      <c r="C51" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>1</v>
+      </c>
+      <c r="C55" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>742_袋鼠爪绿_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>75_爱心_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F58" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="C60" t="str" xml:space="preserve">
+        <v xml:space="preserve">404_小飞燕白色_ delphinium ballkleid
+white_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F61" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="C62" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F65" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>707_永生吊米白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>2</v>
+      </c>
+      <c r="C67" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>341_南天竹绿_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>352_贝壳叶_molucela_Moluccella laevis Pall._1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -914,7 +1085,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02020201530303016581211141558101103010201515151015155510551055151015107555102010200</v>
+        <v>020202015303030165812111415581011030102015151510151555105510551510151075551020102015510151735565555510101051550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-3.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-3.xlsx
@@ -1024,6 +1024,9 @@
       <c r="C71" t="str">
         <v>352_贝壳叶_molucela_Moluccella laevis Pall._1bunch</v>
       </c>
+      <c r="F71" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1085,7 +1088,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020202015303030165812111415581011030102015151510151555105510551510151075551020102015510151735565555510101051550</v>
+        <v>020202015303030165812111415581011030102015151510151555105510551510151075551020102015510151735565555510101051555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-3.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-3.xlsx
@@ -1090,6 +1090,9 @@
       <c r="G2" t="str">
         <v>020202015303030165812111415581011030102015151510151555105510551510151075551020102015510151735565555510101051555</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
